--- a/Projeto-Documentacao/Planilhas/Tabela de Requisitos.xlsx
+++ b/Projeto-Documentacao/Planilhas/Tabela de Requisitos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REGINALDO\Desktop\grupo3-sa\Projeto-Documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4F5B72-A1D3-4B4E-B0F9-3B96F190DFBE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D213ED2-9F15-4E5A-8737-726AE8252D5C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -700,7 +700,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -718,13 +718,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1102,7 +1095,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Projeto-Documentacao/Planilhas/Tabela de Requisitos.xlsx
+++ b/Projeto-Documentacao/Planilhas/Tabela de Requisitos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REGINALDO\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D213ED2-9F15-4E5A-8737-726AE8252D5C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAB4673-BBDD-4A01-8FE6-6B03D150FCCC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>Requisitos</t>
   </si>
@@ -284,9 +284,6 @@
     </r>
   </si>
   <si>
-    <t>RNF19</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">E necessario conexão com a </t>
     </r>
@@ -313,9 +310,6 @@
     </r>
   </si>
   <si>
-    <t>RNF20</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Deve ser instalado um </t>
     </r>
@@ -424,7 +418,210 @@
   </si>
   <si>
     <r>
-      <t>O Software deve conter um campo '</t>
+      <t>Cadastro deve dar opção ao usuario de ser um '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>administrador</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' ou não. (podera criar outros usuarios).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cadastro deve dar opção ao usuario de receber '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notificação</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' de alerta ou não. (podera receber notificação).</t>
+    </r>
+  </si>
+  <si>
+    <t>RF16</t>
+  </si>
+  <si>
+    <t>RF17</t>
+  </si>
+  <si>
+    <t>RF18</t>
+  </si>
+  <si>
+    <r>
+      <t>O Software deve conter um</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'Tela Inicial'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, de Boas vindas ao usuario.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A Página institucional deve conter uma seção </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Home'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, com apresentação inicial do site.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A Página institucional deve conter uma seção</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'Sobre Nós'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, (Historia da empresa,Missão, Visão, Valores).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A Página institucional deve conter uma seção </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Suporte'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, (Entrar em Contato, telefonar, Localizar endereço, dar opiniões).</t>
+    </r>
+  </si>
+  <si>
+    <t>RF4</t>
+  </si>
+  <si>
+    <t>RF5</t>
+  </si>
+  <si>
+    <t>RF19</t>
+  </si>
+  <si>
+    <t>RF20</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A Página institucional deve conter uma seção  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Login'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, dando opção de acesso ao Usuario. (nome, senha).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A Página institucional deve conter uma seção '</t>
     </r>
     <r>
       <rPr>
@@ -446,253 +643,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>', para guarda dados sobre o usuario. (Nome, Email, telefone,  etc.).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cadastro deve dar opção ao usuario de ser um '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>administrador</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' ou não. (podera criar outros usuarios).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cadastro deve dar opção ao usuario de receber '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Notificação</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' de alerta ou não. (podera receber notificação).</t>
-    </r>
-  </si>
-  <si>
-    <t>RF16</t>
-  </si>
-  <si>
-    <t>RF17</t>
-  </si>
-  <si>
-    <t>RF18</t>
-  </si>
-  <si>
-    <t>RNF21</t>
-  </si>
-  <si>
-    <t>RNF22</t>
-  </si>
-  <si>
-    <t>RNF23</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">O Software deve conter um campo  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Login'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, dando opção de acesso ao Usuario. (nome, senha).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A Página institucional deve conter um campo</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'Sobre Nós'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, (Historia da empresa,Missão, Visão, Valores).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A Página institucional deve conter um campo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Suporte'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, (Entrar em Contato, telefonar, Localizar endereço, dar opiniões).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>O Software deve conter um</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'Tela Inicial'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, de Boas vindas ao usuario.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A Página institucional deve conter um </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Home'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, com apresentação inicial do site.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A Página institucional deve conter um campo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Orçamento'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, com</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(nome da empresa, representante e descrição).</t>
     </r>
   </si>
 </sst>
@@ -784,8 +734,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:C22" totalsRowShown="0">
-  <autoFilter ref="A1:C22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:C21" totalsRowShown="0">
+  <autoFilter ref="A1:C21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Requisitos"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descrição"/>
@@ -1092,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1071,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1132,7 +1082,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -1143,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -1151,10 +1101,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1162,21 +1112,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -1184,54 +1134,54 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
@@ -1239,32 +1189,32 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -1272,21 +1222,21 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
@@ -1294,57 +1244,46 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Projeto-Documentacao/Planilhas/Tabela de Requisitos.xlsx
+++ b/Projeto-Documentacao/Planilhas/Tabela de Requisitos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REGINALDO\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAB4673-BBDD-4A01-8FE6-6B03D150FCCC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -160,6 +159,356 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">O Software deve ter um </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Perfil'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de Usuaruo, para poder editar (Nome, Foto, email, etc.).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O Software deve ter um Botão </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Sair'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, dando opção de termino ao usuario.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">E necessario conexão com a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Internet' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>para ter acesso ao site e ao Software.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deve ser instalado um </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'arduino'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para comandar o sensor e registrar os dados para o site</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O Software deve conter um </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Banco de dados'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (SQL server) na nuvem para armazenamento de dados do usuario.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> É necessario um </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Computador'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para visualização do site, sistema e suas funcionalidades.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> É opcional a ultilização de</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'Smart Phone'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para visualização do site, sistema e suas funcionalidades.</t>
+    </r>
+  </si>
+  <si>
+    <t>Desejavel</t>
+  </si>
+  <si>
+    <r>
+      <t>Cadastro deve dar opção ao usuario de ser um '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>administrador</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' ou não. (podera criar outros usuarios).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cadastro deve dar opção ao usuario de receber '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notificação</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' de alerta ou não. (podera receber notificação).</t>
+    </r>
+  </si>
+  <si>
+    <t>RF16</t>
+  </si>
+  <si>
+    <r>
+      <t>O Software deve conter um</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'Tela Inicial'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, de Boas vindas ao usuario.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A Página institucional deve conter uma seção </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Home'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, com apresentação inicial do site.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A Página institucional deve conter uma seção</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'Sobre Nós'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, (Historia da empresa,Missão, Visão, Valores).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A Página institucional deve conter uma seção </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Suporte'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, (Entrar em Contato, telefonar, Localizar endereço, dar opiniões).</t>
+    </r>
+  </si>
+  <si>
+    <t>RF4</t>
+  </si>
+  <si>
+    <t>RF5</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Graficos deve mostrar taxas de </t>
     </r>
     <r>
@@ -202,400 +551,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">O Software deve ter um </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Perfil'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de Usuaruo, para poder editar (Nome, Foto, email, etc.).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">O Software deve ter um Botão </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Sair'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, dando opção de termino ao usuario.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Alerta deve permitir que seja feito </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>impressão</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de documentos a qualquer instante.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">E necessario conexão com a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">'Internet' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>para ter acesso ao site e ao Software.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Deve ser instalado um </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'arduino'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> para comandar o sensor e registrar os dados para o site</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">O Software deve conter um </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Banco de dados'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (SQL server) na nuvem para armazenamento de dados do usuario.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> É necessario um </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Computador'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> para visualização do site, sistema e suas funcionalidades.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> É opcional a ultilização de</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'Smart Phone'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> para visualização do site, sistema e suas funcionalidades.</t>
-    </r>
-  </si>
-  <si>
-    <t>Desejavel</t>
-  </si>
-  <si>
-    <r>
-      <t>Cadastro deve dar opção ao usuario de ser um '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>administrador</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' ou não. (podera criar outros usuarios).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cadastro deve dar opção ao usuario de receber '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Notificação</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' de alerta ou não. (podera receber notificação).</t>
-    </r>
-  </si>
-  <si>
-    <t>RF16</t>
-  </si>
-  <si>
-    <t>RF17</t>
-  </si>
-  <si>
-    <t>RF18</t>
-  </si>
-  <si>
-    <r>
-      <t>O Software deve conter um</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'Tela Inicial'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, de Boas vindas ao usuario.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A Página institucional deve conter uma seção </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Home'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, com apresentação inicial do site.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A Página institucional deve conter uma seção</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'Sobre Nós'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, (Historia da empresa,Missão, Visão, Valores).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A Página institucional deve conter uma seção </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Suporte'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, (Entrar em Contato, telefonar, Localizar endereço, dar opiniões).</t>
-    </r>
-  </si>
-  <si>
-    <t>RF4</t>
-  </si>
-  <si>
-    <t>RF5</t>
-  </si>
-  <si>
-    <t>RF19</t>
-  </si>
-  <si>
-    <t>RF20</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A Página institucional deve conter uma seção  </t>
+      <t>. (tendo opção de escolher o sensor ou a geladeira que quer visualizar)</t>
+    </r>
+  </si>
+  <si>
+    <t>Alerta deve ser emitido ao usuario via SMS.</t>
+  </si>
+  <si>
+    <t>RFN17</t>
+  </si>
+  <si>
+    <t>RFN18</t>
+  </si>
+  <si>
+    <t>RFN19</t>
+  </si>
+  <si>
+    <t>RFN20</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O Software deve conter um  </t>
     </r>
     <r>
       <rPr>
@@ -621,7 +597,7 @@
   </si>
   <si>
     <r>
-      <t>A Página institucional deve conter uma seção '</t>
+      <t>O Software deve conter um '</t>
     </r>
     <r>
       <rPr>
@@ -649,7 +625,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -734,12 +710,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:C21" totalsRowShown="0">
-  <autoFilter ref="A1:C21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C21" totalsRowShown="0">
+  <autoFilter ref="A1:C21"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Requisitos"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descrição"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Classificação" dataDxfId="0"/>
+    <tableColumn id="1" name="Requisitos"/>
+    <tableColumn id="2" name="Descrição"/>
+    <tableColumn id="3" name="Classificação" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1041,7 +1017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1051,7 +1027,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="110.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="112.140625" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1071,7 +1047,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1082,7 +1058,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -1093,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -1101,7 +1077,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -1112,10 +1088,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -1126,7 +1102,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -1148,7 +1124,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1170,7 +1146,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
@@ -1203,7 +1179,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
@@ -1214,7 +1190,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -1225,18 +1201,18 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
@@ -1244,10 +1220,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
@@ -1255,10 +1231,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
@@ -1269,7 +1245,7 @@
         <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>16</v>
@@ -1280,10 +1256,10 @@
         <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Projeto-Documentacao/Planilhas/Tabela de Requisitos.xlsx
+++ b/Projeto-Documentacao/Planilhas/Tabela de Requisitos.xlsx
@@ -395,9 +395,6 @@
     </r>
   </si>
   <si>
-    <t>RF16</t>
-  </si>
-  <si>
     <r>
       <t>O Software deve conter um</t>
     </r>
@@ -620,6 +617,9 @@
       </rPr>
       <t>', para guarda dados sobre o usuario. (Nome, Email, telefone,  etc.).</t>
     </r>
+  </si>
+  <si>
+    <t>RFN16</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,7 +1047,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1058,7 +1058,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -1069,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -1077,10 +1077,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -1113,7 +1113,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -1124,7 +1124,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1146,7 +1146,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
@@ -1179,7 +1179,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
